--- a/ExplorerFund/operation/strategy_update/shfe/night/shfe_night_19_config.xlsx
+++ b/ExplorerFund/operation/strategy_update/shfe/night/shfe_night_19_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16472" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16471" uniqueCount="57">
   <si>
     <t>策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -706,10 +706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:XES24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -49786,7 +49787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16373">
+    <row r="2" spans="1:16373" hidden="1">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -49810,7 +49811,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:16373">
+    <row r="3" spans="1:16373" hidden="1">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -49839,7 +49840,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:16373">
+    <row r="4" spans="1:16373" hidden="1">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -49868,7 +49869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:16373">
+    <row r="5" spans="1:16373" hidden="1">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -49892,7 +49893,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:16373">
+    <row r="6" spans="1:16373" hidden="1">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -49916,7 +49917,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:16373">
+    <row r="7" spans="1:16373" hidden="1">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -49940,7 +49941,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:16373" ht="16.5" customHeight="1">
+    <row r="8" spans="1:16373" ht="16.5" hidden="1" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -49964,7 +49965,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:16373" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="9" spans="1:16373" s="3" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -49989,7 +49990,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:16373" s="3" customFormat="1">
+    <row r="10" spans="1:16373" s="3" customFormat="1" hidden="1">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -50014,7 +50015,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:16373" s="3" customFormat="1">
+    <row r="11" spans="1:16373" s="3" customFormat="1" hidden="1">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -50039,7 +50040,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:16373">
+    <row r="12" spans="1:16373" hidden="1">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -50063,7 +50064,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:16373">
+    <row r="13" spans="1:16373" hidden="1">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -50087,7 +50088,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:16373">
+    <row r="14" spans="1:16373" hidden="1">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -50111,7 +50112,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:16373">
+    <row r="15" spans="1:16373" hidden="1">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -50135,7 +50136,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:16373">
+    <row r="16" spans="1:16373" hidden="1">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -50159,7 +50160,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -50183,7 +50184,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -50231,7 +50232,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1">
+    <row r="20" spans="1:9" s="3" customFormat="1" hidden="1">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -50260,7 +50261,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1">
+    <row r="21" spans="1:9" s="3" customFormat="1" hidden="1">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -50289,7 +50290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1">
+    <row r="22" spans="1:9" s="3" customFormat="1" hidden="1">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -50318,7 +50319,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1">
+    <row r="23" spans="1:9" s="3" customFormat="1" hidden="1">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -50361,24 +50362,26 @@
         <v>40</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F24" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="H24" s="11"/>
       <c r="I24" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A24">
-    <filterColumn colId="0"/>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ru"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
